--- a/SecondSprint/Gruppo4_ProductBacklog .xlsx
+++ b/SecondSprint/Gruppo4_ProductBacklog .xlsx
@@ -94,7 +94,7 @@
     <t>Marco Bove</t>
   </si>
   <si>
-    <t>1. Definizione e implementazione della funzionalità che salva le regole.</t>
+    <t>1. Definizione e implementazione della funzionalità che salva le regole.                                                    2. Test ed integrazione.</t>
   </si>
   <si>
     <t>Creazione regola</t>
@@ -123,7 +123,7 @@
     <t>Caricamento regole salvate</t>
   </si>
   <si>
-    <t>1. Definizione e implementazione della funzionalità di caricamento delle regole.</t>
+    <t>1. Definizione e implementazione della funzionalità di caricamento delle regole.                            2. Test ed integrazione.</t>
   </si>
   <si>
     <t>Creazione trigger</t>
@@ -150,7 +150,7 @@
   </si>
   <si>
     <t>1. Inserire una sezione in cui indicare lo sleeping period della regola.
-2. Definizione e implementazione della funzionalità di disattivazione in relazione allo sleeping period.</t>
+2. Definizione e implementazione della funzionalità di disattivazione in relazione allo sleeping period.                                                                                                                                                                      3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Creazione azione</t>
@@ -181,7 +181,7 @@
   <si>
     <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare una stringa e un file.
 2. Apertura di una finestra di dialogo in cui scegliere un file.
-3. Definizione e implementazione della funzionalità che scrive la stringa selezionata nel file specificato.                                                                      </t>
+3. Definizione e implementazione della funzionalità che scrive la stringa selezionata nel file specificato.                                                                                                                                                         3. Test ed integrazione.                                                               </t>
   </si>
   <si>
     <t>Attivazione di una regola</t>
@@ -206,34 +206,34 @@
     <t>Azione Copia di un file</t>
   </si>
   <si>
+    <t>1. Inserire tra le azioni una sezione che permetta di selezionare un file e una cartella.
+2. aggiungere un tasto che apra una finestra di dialogo in cui scegliere un file.
+3. aggiungere un tasto che apra una finestra di dialogo in cui scegliere una cartella di destinazione.
+4. Definizione e implementazione della funzionalità che copia il file selezionato nella cartella di destinazione.                                                                                                                                                                          5. Test ed integrazione.</t>
+  </si>
+  <si>
+    <t>Controllo dei trigger</t>
+  </si>
+  <si>
+    <t>Come utente voglio che sia implementato un controllo periodico dei trigger associati all regole, col fine di attivare le regole, qualora siano verificati.</t>
+  </si>
+  <si>
+    <t>Dato un insieme di regole
+Quando il sistema esegue il controllo
+allora, se le condizioni associate ai trigger sono verificate, le regole vengono attivate.</t>
+  </si>
+  <si>
+    <t>1. Definizione e implementazione della funzione che verifica periodicamente i trigger associati alle regole.
+2. Test e integrazione</t>
+  </si>
+  <si>
+    <t>Azione trasferimento di un file</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare un file e una cartella.
 2. aggiungere un tasto che apra una finestra di dialogo in cui scegliere un file.
 3. aggiungere un tasto che apra una finestra di dialogo in cui scegliere una cartella di destinazione.
-4. Definizione e implementazione della funzionalità che copia il file selezionato nella cartella di destinazione.                                                                                  </t>
-  </si>
-  <si>
-    <t>Controllo dei trigger</t>
-  </si>
-  <si>
-    <t>Come utente voglio che sia implementato un controllo periodico dei trigger associati all regole, col fine di attivare le regole, qualora siano verificati.</t>
-  </si>
-  <si>
-    <t>Dato un insieme di regole
-Quando il sistema esegue il controllo
-allora, se le condizioni associate ai trigger sono verificate, le regole vengono attivate.</t>
-  </si>
-  <si>
-    <t>1. Definizione e implementazione della funzione che verifica periodicamente i trigger associati alle regole.
-2. Test e integrazione</t>
-  </si>
-  <si>
-    <t>Azione trasferimento di un file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare un file e una cartella.
-2. aggiungere un tasto che apra una finestra di dialogo in cui scegliere un file.
-3. aggiungere un tasto che apra una finestra di dialogo in cui scegliere una cartella di destinazione.
-4. Definizione e implementazione della funzionalità di trasferimento del file selezionato nella cartella di destinazione.                                                                                  </t>
+4. Definizione e implementazione della funzionalità di trasferimento del file selezionato nella cartella di destinazione.                                                                                                                                                   5. Test ed integrazione.                                                                           </t>
   </si>
   <si>
     <t>Trigger orario</t>
@@ -254,9 +254,9 @@
     <t>Azione eliminazione di un file</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare un file.
+    <t>1. Inserire tra le azioni una sezione che permetta di selezionare un file.
 2. aggiungere un tasto che apra una finestra di dialogo in cui scegliere un file.
-3. Definizione e implementazione della funzionalità di eliminazione del file selezionato.                                                                                  </t>
+3. Definizione e implementazione della funzionalità di eliminazione del file selezionato.                                                                                      4. Test ed integrazione</t>
   </si>
   <si>
     <t>Azione audio</t>
@@ -282,7 +282,7 @@
     <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare eseguire un programma esterno.
 2. Sezione per la scelta del programma da eseguire.
 3. Sezione per l'inserimento dei parametri da passare al programma.
-4. Definizione e implementazione della funzionalità di esecuzione di un programma esterno.                                                                                  </t>
+4. Definizione e implementazione della funzionalità di esecuzione di un programma esterno.                                                                          5. Test integrazione.                                                                        </t>
   </si>
   <si>
     <t>Azione messaggio sul display</t>
@@ -305,8 +305,8 @@
     <t>Trigger giorno della settimana</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Inserire un'opzione nell'interfaccia per la selezione del giorno della settimana come trigger.
-2. Definizione e implementazione della logica per l'attivazione della regola solo nel giorno della settimana selezionato.    </t>
+    <t>1. Inserire un'opzione nell'interfaccia per la selezione del giorno della settimana come trigger.
+2. Definizione e implementazione della logica per l'attivazione della regola solo nel giorno della settimana selezionato.                                                                                                                                       3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Chiusura azione</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">1. Inserire tra i trigger una sezione che permetta di selezionare un file e una cartella.
 2. Inserire una sezione in cui scrivere il nome del file.
 3. Aggiungere un tasto che apra una finestra di dialogo in cui scegliere una cartella.
-4. Definizione e implementazione della funzionalità di verifica della presenza di un file in una specifica cartella.                                                                                  </t>
+4. Definizione e implementazione della funzionalità di verifica della presenza di un file in una specifica cartella.                                                                                                                                                                5. Test ed integrazione.                                                                   </t>
   </si>
   <si>
     <t>Come utente voglio scegliere un giorno della settimana cosicché posso associare un trigger a quel giorno della settimana.</t>
@@ -513,10 +513,10 @@
     <t>Trigger dimensione file</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Inserire tra i trigger una sezione che permetta di selezionare un file e un valore.
+    <t>1. Inserire tra i trigger una sezione che permetta di selezionare un file e un valore.
 2. Aggiungere un tasto che apra una finestra di dialogo in cui scegliere il file.
 3. Inserire una sezione in cui scrivere il valore.
-4. Definizione e implementazione della funzionalità del confronto tra la dimensione del file e il valore immesso.                                                                                  </t>
+4. Definizione e implementazione della funzionalità del confronto tra la dimensione del file e il valore immesso.                                                                                                                                                       5. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio scegliere un giorno del mese cosicché posso associare un trigger a quel giorno del mese.</t>
@@ -535,7 +535,7 @@
 2. Aggiungere un tasto che apra una finestra di dialogo in cui scegliere il programma.
 3. Inserire una sezione in cui scrivere i parametri.
 4. Inserire una sezione in cui scrivere il valore.
-5. Definizione e implementazione della funzionalità del confronto tra l'exit status di un programma, dopo avergli passato determinati parametri, e di un valore specificato.                             </t>
+5. Definizione e implementazione della funzionalità del confronto tra l'exit status di un programma, dopo avergli passato determinati parametri, e di un valore specificato.                                          6. Test ed integrazione.               </t>
   </si>
   <si>
     <t>Come utente voglio selezionare una data cosicché posso associare un trigger a quella data.</t>
@@ -552,7 +552,7 @@
     <t>1. Inserire nella pagina di creazione delle azioni la funzionalità di poter inserire più azioni.
 2. Definizione e implementazione della funzionalità che permette di concatenare sequenze di azioni quando viene verificata una condizione che rende la regola attiva.
 3. Test e integrazione
-4. Design di una pagina per la visualizzazione delle azioni associate ad una regola</t>
+4. Design di una pagina per la visualizzazione delle azioni associate ad una regola.                                                5. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio specificare per un trigger un file  e una cartella specifica cosicché che la verifica della sua presenza all'interno della cartella funga da condizione di verifica del trigger.</t>
@@ -570,7 +570,7 @@
     <t>1. Aggiunta di pulsanti AND,OR,NOT nella pagina di creazione dei trigger
 2.Definizione e implementazione della funzionalità che permette di creare combinazioni tra i trigger.
 3. Test e integrazione
-4. Design di una pagina per la visualizzazione dei trigger associati ad una regola</t>
+4. Design di una pagina per la visualizzazione dei trigger associati ad una regola.                                                      5. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio specificare per un trigger un file e un valore cosicché la verifica che la dimensione del un file sia maggiore del valore funga funga da condizione di verifica del trigger.</t>
@@ -585,7 +585,7 @@
   </si>
   <si>
     <t>1. Aggiungere un bottone "crea contatore" nell'interfaccia dell'app.
-2. Definizione e implementazione della funzionalità di creazione di un puntatore.</t>
+2. Definizione e implementazione della funzionalità di creazione di un puntatore.                                     3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio specificare un programma,dei parametri e un valore cosicché la verifica che l'exit status assuma un valore pari a quello del valore specificato funga da condizione di verifica del trigger.</t>
@@ -600,7 +600,7 @@
   </si>
   <si>
     <t>1. Aggiungere un bottone "modifica contatore" nell'interfaccia dell'app.
-2. Definizione e implementazione della funzionalirà relativa alla modifica del valore del contatore.</t>
+2. Definizione e implementazione della funzionalirà relativa alla modifica del valore del contatore.                                                                                                                                                                                               3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Bug Test esecuzione programma  esterno</t>
@@ -612,8 +612,8 @@
     <t>Azione di settaggio di un contatore</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare un contatore e un valore a cui settarlo.
-2. Definizione e implementazione della funzionalità di settaggio del contatore al valore inserito.                                                                                   </t>
+    <t>1. Inserire tra le azioni una sezione che permetta di selezionare un contatore e un valore a cui settarlo.
+2. Definizione e implementazione della funzionalità di settaggio del contatore al valore inserito.                                                                                                                                                                                     3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio poter selezionare più azioni per una regola cosicché posso associare ad una regola una sequenza di azioni.</t>
@@ -627,8 +627,8 @@
     <t>Azione di somma di un valore ad un contatore</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare un contatore e un valore di cui aumentarlo.
-2. Definizione e implementazione della funzionalità di aggiornamento del valore del contatore alla somma dei due valori.                                                                  </t>
+    <t>1. Inserire tra le azioni una sezione che permetta di selezionare un contatore e un valore di cui aumentarlo.
+2. Definizione e implementazione della funzionalità di aggiornamento del valore del contatore alla somma dei due valori.                                                                                                                                  3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio poter creare nuovi trigger dalla combinazione di altri trigger attraverso gli operatori logici cosicché io possa avere condizioni complesse per la verifica del trigger</t>
@@ -644,7 +644,7 @@
   </si>
   <si>
     <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare due contatori.
-2. Definizione e implementazione della funzionalità di aggiornamento del valore del contatore alla somma tra il valore dei due contatori.                                                                                   </t>
+2. Definizione e implementazione della funzionalità di aggiornamento del valore del contatore alla somma tra il valore dei due contatori.                                                                                                        3. Test ed integrazione.                         </t>
   </si>
   <si>
     <t>Come utente voglio creare delle variabili contatori che hanno un nome e un valore numerico intero.</t>
@@ -659,7 +659,7 @@
   </si>
   <si>
     <t>1. Aggiungere un bottone "visualizza contatori".
-2. Definizione e implementazione della funzionalirà relativa alla visualizzazione dei contatori.</t>
+2. Definizione e implementazione della funzionalirà relativa alla visualizzazione dei contatori.                       3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio modificare il valore di un contatore.</t>
@@ -1071,7 +1071,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1128,9 +1128,6 @@
     <xf borderId="8" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1190,13 +1187,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
@@ -1232,7 +1223,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1554,11 +1545,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2078964046"/>
-        <c:axId val="1592447334"/>
+        <c:axId val="2007008735"/>
+        <c:axId val="880047276"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2078964046"/>
+        <c:axId val="2007008735"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,10 +1601,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1592447334"/>
+        <c:crossAx val="880047276"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1592447334"/>
+        <c:axId val="880047276"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="138.0"/>
@@ -1678,7 +1669,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078964046"/>
+        <c:crossAx val="2007008735"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
     </c:plotArea>
@@ -2204,12 +2195,12 @@
       <c r="X13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Y13" s="22" t="s">
+      <c r="Y13" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <f t="shared" ref="D14:D40" si="1">D13+1</f>
         <v>2</v>
       </c>
@@ -2228,7 +2219,7 @@
       <c r="I14" s="20">
         <v>1.0</v>
       </c>
-      <c r="O14" s="23">
+      <c r="O14" s="22">
         <f t="shared" ref="O14:O25" si="2"> O13+1</f>
         <v>2</v>
       </c>
@@ -2257,19 +2248,19 @@
       <c r="X14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="19" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="17">
@@ -2278,10 +2269,10 @@
       <c r="H15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>1.0</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="22">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -2310,19 +2301,19 @@
       <c r="X15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Y15" s="22" t="s">
+      <c r="Y15" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>42</v>
       </c>
       <c r="G16" s="17">
@@ -2331,10 +2322,10 @@
       <c r="H16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <v>1.0</v>
       </c>
-      <c r="O16" s="23">
+      <c r="O16" s="22">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -2363,20 +2354,20 @@
       <c r="X16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Y16" s="22" t="s">
+      <c r="Y16" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="C17" s="26"/>
-      <c r="D17" s="23">
+      <c r="C17" s="25"/>
+      <c r="D17" s="22">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="17">
@@ -2385,10 +2376,10 @@
       <c r="H17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>1.0</v>
       </c>
-      <c r="O17" s="23">
+      <c r="O17" s="22">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -2417,19 +2408,19 @@
       <c r="X17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Y17" s="22" t="s">
+      <c r="Y17" s="19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="23" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="17">
@@ -2441,7 +2432,7 @@
       <c r="I18" s="20">
         <v>1.0</v>
       </c>
-      <c r="O18" s="23">
+      <c r="O18" s="22">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -2470,19 +2461,19 @@
       <c r="X18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Y18" s="22" t="s">
+      <c r="Y18" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="23" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="17">
@@ -2494,7 +2485,7 @@
       <c r="I19" s="20">
         <v>1.0</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="22">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -2520,10 +2511,10 @@
       <c r="W19" s="17">
         <v>3.0</v>
       </c>
-      <c r="X19" s="27" t="s">
+      <c r="X19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Y19" s="22" t="s">
+      <c r="Y19" s="19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2547,7 +2538,7 @@
       <c r="I20" s="20">
         <v>1.0</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O20" s="22">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -2573,10 +2564,10 @@
       <c r="W20" s="17">
         <v>5.0</v>
       </c>
-      <c r="X20" s="27" t="s">
+      <c r="X20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Y20" s="22" t="s">
+      <c r="Y20" s="19" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2597,10 +2588,10 @@
       <c r="H21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="27">
         <v>1.0</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="22">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2626,10 +2617,10 @@
       <c r="W21" s="18">
         <v>3.0</v>
       </c>
-      <c r="X21" s="27" t="s">
+      <c r="X21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Y21" s="22" t="s">
+      <c r="Y21" s="19" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2650,10 +2641,10 @@
       <c r="H22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="27">
         <v>1.0</v>
       </c>
-      <c r="O22" s="23">
+      <c r="O22" s="22">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -2693,7 +2684,7 @@
       <c r="E23" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>86</v>
       </c>
       <c r="G23" s="17">
@@ -2702,10 +2693,10 @@
       <c r="H23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <v>2.0</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O23" s="22">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -2745,7 +2736,7 @@
       <c r="E24" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="17">
@@ -2757,7 +2748,7 @@
       <c r="I24" s="20">
         <v>2.0</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O24" s="22">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -2806,10 +2797,10 @@
       <c r="H25" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="27">
         <v>2.0</v>
       </c>
-      <c r="O25" s="23">
+      <c r="O25" s="22">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -2859,18 +2850,18 @@
       <c r="H26" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <v>2.0</v>
       </c>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="D27" s="17">
@@ -2889,18 +2880,18 @@
       <c r="H27" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="27">
         <v>2.0</v>
       </c>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="29"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="D28" s="17">
@@ -2919,18 +2910,18 @@
       <c r="H28" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="27">
         <v>2.0</v>
       </c>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="29"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="D29" s="17">
@@ -2949,18 +2940,18 @@
       <c r="H29" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <v>2.0</v>
       </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="29"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="D30" s="17">
@@ -2979,17 +2970,17 @@
       <c r="H30" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="27">
         <v>3.0</v>
       </c>
-      <c r="O30" s="29"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="W30" s="34"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="29"/>
+      <c r="W30" s="33"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="C31" s="35"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="17">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3006,14 +2997,14 @@
       <c r="H31" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="27">
         <v>3.0</v>
       </c>
-      <c r="O31" s="29"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="30"/>
-      <c r="U31" s="36" t="s">
+      <c r="O31" s="28"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="29"/>
+      <c r="U31" s="35" t="s">
         <v>117</v>
       </c>
       <c r="V31" s="8"/>
@@ -3038,26 +3029,26 @@
       <c r="H32" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="27">
         <v>3.0</v>
       </c>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="U32" s="38" t="s">
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="U32" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="V32" s="38" t="s">
+      <c r="V32" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="W32" s="39" t="s">
+      <c r="W32" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="X32" s="40" t="s">
+      <c r="X32" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Y32" s="38" t="s">
+      <c r="Y32" s="37" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3078,13 +3069,13 @@
       <c r="H33" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="27">
         <v>3.0</v>
       </c>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
       <c r="U33" s="17">
         <v>40.0</v>
       </c>
@@ -3097,7 +3088,7 @@
       <c r="X33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Y33" s="41" t="s">
+      <c r="Y33" s="40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3115,16 +3106,16 @@
       <c r="G34" s="17">
         <v>5.0</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H34" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="27">
         <v>3.0</v>
       </c>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
       <c r="U34" s="17">
         <v>26.0</v>
       </c>
@@ -3137,7 +3128,7 @@
       <c r="X34" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Y34" s="43" t="s">
+      <c r="Y34" s="42" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3158,7 +3149,7 @@
       <c r="H35" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="27">
         <v>3.0</v>
       </c>
       <c r="U35" s="17">
@@ -3174,7 +3165,7 @@
       <c r="X35" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Y35" s="43" t="s">
+      <c r="Y35" s="42" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3195,7 +3186,7 @@
       <c r="H36" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="27">
         <v>3.0</v>
       </c>
       <c r="U36" s="17">
@@ -3211,7 +3202,7 @@
       <c r="X36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Y36" s="43" t="s">
+      <c r="Y36" s="42" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3232,7 +3223,7 @@
       <c r="H37" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="27">
         <v>3.0</v>
       </c>
       <c r="U37" s="17">
@@ -3248,7 +3239,7 @@
       <c r="X37" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Y37" s="44" t="s">
+      <c r="Y37" s="42" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3269,7 +3260,7 @@
       <c r="H38" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="27">
         <v>3.0</v>
       </c>
       <c r="U38" s="17">
@@ -3285,7 +3276,7 @@
       <c r="X38" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="Y38" s="44" t="s">
+      <c r="Y38" s="42" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3306,7 +3297,7 @@
       <c r="H39" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="27">
         <v>3.0</v>
       </c>
       <c r="U39" s="17">
@@ -3322,7 +3313,7 @@
       <c r="X39" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Y39" s="45" t="s">
+      <c r="Y39" s="40" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3343,7 +3334,7 @@
       <c r="H40" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="27">
         <v>3.0</v>
       </c>
       <c r="U40" s="17">
@@ -3356,28 +3347,28 @@
       <c r="W40" s="17">
         <v>3.0</v>
       </c>
-      <c r="X40" s="27" t="s">
+      <c r="X40" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Y40" s="45" t="s">
+      <c r="Y40" s="40" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="D41" s="46">
+      <c r="D41" s="43">
         <v>40.0</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="49">
+      <c r="G41" s="46">
         <v>1.0</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="51">
+      <c r="H41" s="47"/>
+      <c r="I41" s="48">
         <v>3.0</v>
       </c>
       <c r="U41" s="17">
@@ -3390,10 +3381,10 @@
       <c r="W41" s="17">
         <v>3.0</v>
       </c>
-      <c r="X41" s="27" t="s">
+      <c r="X41" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Y41" s="43" t="s">
+      <c r="Y41" s="42" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3414,7 +3405,7 @@
       <c r="H42" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="I42" s="52">
+      <c r="I42" s="49">
         <v>4.0</v>
       </c>
       <c r="U42" s="17">
@@ -3426,10 +3417,10 @@
       <c r="W42" s="17">
         <v>4.0</v>
       </c>
-      <c r="X42" s="27" t="s">
+      <c r="X42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="Y42" s="43" t="s">
+      <c r="Y42" s="42" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3450,22 +3441,22 @@
       <c r="H43" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="I43" s="52">
+      <c r="I43" s="49">
         <v>4.0</v>
       </c>
-      <c r="U43" s="53">
+      <c r="U43" s="50">
         <v>35.0</v>
       </c>
-      <c r="V43" s="54" t="s">
+      <c r="V43" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="W43" s="53">
+      <c r="W43" s="50">
         <v>3.0</v>
       </c>
-      <c r="X43" s="54" t="s">
+      <c r="X43" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="Y43" s="43" t="s">
+      <c r="Y43" s="42" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3486,22 +3477,22 @@
       <c r="H44" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="52">
+      <c r="I44" s="49">
         <v>5.0</v>
       </c>
-      <c r="U44" s="55">
+      <c r="U44" s="52">
         <v>36.0</v>
       </c>
-      <c r="V44" s="56" t="s">
+      <c r="V44" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="W44" s="55">
+      <c r="W44" s="52">
         <v>3.0</v>
       </c>
-      <c r="X44" s="56" t="s">
+      <c r="X44" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="Y44" s="57" t="s">
+      <c r="Y44" s="54" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3522,14 +3513,14 @@
       <c r="H45" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="I45" s="52">
+      <c r="I45" s="49">
         <v>5.0</v>
       </c>
-      <c r="U45" s="58"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="60"/>
-      <c r="X45" s="61"/>
-      <c r="Y45" s="62"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="59"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="D46" s="17">
@@ -3548,14 +3539,14 @@
       <c r="H46" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I46" s="52">
+      <c r="I46" s="49">
         <v>5.0</v>
       </c>
-      <c r="U46" s="58"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="60"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="62"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="59"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="D47" s="17">
@@ -3574,10 +3565,10 @@
       <c r="H47" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="49">
         <v>5.0</v>
       </c>
-      <c r="U47" s="63"/>
+      <c r="U47" s="60"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="D48" s="17">
@@ -3596,14 +3587,14 @@
       <c r="H48" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I48" s="49">
         <v>5.0</v>
       </c>
-      <c r="R48" s="63"/>
-      <c r="U48" s="64"/>
-      <c r="V48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="64"/>
+      <c r="R48" s="60"/>
+      <c r="U48" s="61"/>
+      <c r="V48" s="61"/>
+      <c r="W48" s="61"/>
+      <c r="X48" s="61"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="D49" s="17">
@@ -3622,16 +3613,16 @@
       <c r="H49" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I49" s="49">
         <v>5.0</v>
       </c>
-      <c r="R49" s="65"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="66"/>
-      <c r="W49" s="66"/>
-      <c r="X49" s="64"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="61"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="61"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="D50" s="17">
@@ -3650,22 +3641,22 @@
       <c r="H50" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="I50" s="52">
+      <c r="I50" s="49">
         <v>5.0</v>
       </c>
-      <c r="R50" s="67" t="s">
+      <c r="R50" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="S50" s="67" t="s">
+      <c r="S50" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="T50" s="68" t="s">
+      <c r="T50" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="U50" s="64"/>
-      <c r="V50" s="69"/>
-      <c r="W50" s="69"/>
-      <c r="X50" s="64"/>
+      <c r="U50" s="61"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="66"/>
+      <c r="X50" s="61"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="D51" s="17">
@@ -3684,80 +3675,80 @@
       <c r="H51" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="I51" s="52">
+      <c r="I51" s="49">
         <v>5.0</v>
       </c>
-      <c r="R51" s="70">
+      <c r="R51" s="67">
         <v>40.0</v>
       </c>
-      <c r="S51" s="70">
+      <c r="S51" s="67">
         <v>37.0</v>
       </c>
-      <c r="T51" s="70">
+      <c r="T51" s="67">
         <v>1.0</v>
       </c>
-      <c r="U51" s="64"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="64"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="61"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="D52" s="53">
+      <c r="D52" s="50">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="53">
+      <c r="G52" s="50">
         <v>7.0</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="I52" s="72">
+      <c r="I52" s="69">
         <v>5.0</v>
       </c>
-      <c r="R52" s="70">
+      <c r="R52" s="67">
         <v>38.0</v>
       </c>
-      <c r="S52" s="70">
+      <c r="S52" s="67">
         <v>44.0</v>
       </c>
-      <c r="T52" s="70">
+      <c r="T52" s="67">
         <v>2.0</v>
       </c>
-      <c r="U52" s="64"/>
-      <c r="V52" s="69"/>
-      <c r="W52" s="69"/>
-      <c r="X52" s="64"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="66"/>
+      <c r="W52" s="66"/>
+      <c r="X52" s="61"/>
     </row>
     <row r="53" ht="165.0" customHeight="1">
-      <c r="D53" s="73"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="77"/>
-      <c r="R53" s="70">
+      <c r="D53" s="70"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="74"/>
+      <c r="R53" s="67">
         <v>45.0</v>
       </c>
-      <c r="S53" s="70"/>
-      <c r="T53" s="70">
+      <c r="S53" s="67"/>
+      <c r="T53" s="67">
         <v>3.0</v>
       </c>
-      <c r="U53" s="64"/>
-      <c r="V53" s="64"/>
-      <c r="W53" s="64"/>
-      <c r="X53" s="64"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="R54" s="65"/>
-      <c r="S54" s="65"/>
-      <c r="T54" s="65"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
     </row>
     <row r="55" ht="12.75" customHeight="1"/>
     <row r="56" ht="12.75" customHeight="1"/>
@@ -4792,7 +4783,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1"/>
     <row r="6" ht="27.0" customHeight="1">
-      <c r="F6" s="78"/>
+      <c r="F6" s="75"/>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1"/>
@@ -4804,130 +4795,130 @@
     <row r="14" ht="12.75" customHeight="1"/>
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="77" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" ht="39.0" customHeight="1">
-      <c r="C17" s="81">
+      <c r="C17" s="78">
         <v>140.0</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="79">
         <v>140.0</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="79">
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="39.0" customHeight="1">
-      <c r="C18" s="81">
+      <c r="C18" s="78">
         <v>96.0</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="79">
         <v>103.0</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="79">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="39.0" customHeight="1">
-      <c r="C19" s="81">
+      <c r="C19" s="78">
         <v>52.0</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="79">
         <v>59.0</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="79">
         <v>2.0</v>
       </c>
     </row>
     <row r="20" ht="39.0" customHeight="1">
-      <c r="C20" s="81">
+      <c r="C20" s="78">
         <v>8.0</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82">
+      <c r="D20" s="79"/>
+      <c r="E20" s="79">
         <v>3.0</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="C21" s="81">
+      <c r="C21" s="78">
         <v>-36.0</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82">
+      <c r="D21" s="79"/>
+      <c r="E21" s="79">
         <v>4.0</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1"/>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
     </row>
     <row r="25" ht="12.75" customHeight="1"/>
     <row r="26" ht="12.75" customHeight="1"/>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
     </row>
     <row r="28" ht="24.75" customHeight="1"/>
     <row r="29" ht="27.0" customHeight="1"/>
     <row r="30" ht="12.75" customHeight="1"/>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
     </row>
     <row r="32" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
     </row>
     <row r="36" ht="12.75" customHeight="1"/>
     <row r="37" ht="12.75" customHeight="1"/>
     <row r="38" ht="27.0" customHeight="1"/>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
     </row>
     <row r="40" ht="12.75" customHeight="1"/>
     <row r="41" ht="12.75" customHeight="1"/>

--- a/SecondSprint/Gruppo4_ProductBacklog .xlsx
+++ b/SecondSprint/Gruppo4_ProductBacklog .xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="192">
   <si>
     <t>Gruppo 04: Andrea Alberti - Marco Bove - Giulia Minichiello - Domenico Schettini</t>
   </si>
@@ -181,7 +181,8 @@
   <si>
     <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare una stringa e un file.
 2. Apertura di una finestra di dialogo in cui scegliere un file.
-3. Definizione e implementazione della funzionalità che scrive la stringa selezionata nel file specificato.                                                                                                                                                         3. Test ed integrazione.                                                               </t>
+3. Definizione e implementazione della funzionalità che scrive la stringa selezionata nel file specificato.   
+3. Scrivere il completamento dell'azione su un file di log.                                                                                                                                                      4. Test ed integrazione.                                                               </t>
   </si>
   <si>
     <t>Attivazione di una regola</t>
@@ -209,7 +210,8 @@
     <t>1. Inserire tra le azioni una sezione che permetta di selezionare un file e una cartella.
 2. aggiungere un tasto che apra una finestra di dialogo in cui scegliere un file.
 3. aggiungere un tasto che apra una finestra di dialogo in cui scegliere una cartella di destinazione.
-4. Definizione e implementazione della funzionalità che copia il file selezionato nella cartella di destinazione.                                                                                                                                                                          5. Test ed integrazione.</t>
+4. Definizione e implementazione della funzionalità che copia il file selezionato nella cartella di destinazione
+5.Scrivere il completamento dell'azione su un file di log..                                                                                                                                                                          6. Test ed integrazione.</t>
   </si>
   <si>
     <t>Controllo dei trigger</t>
@@ -233,7 +235,8 @@
     <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare un file e una cartella.
 2. aggiungere un tasto che apra una finestra di dialogo in cui scegliere un file.
 3. aggiungere un tasto che apra una finestra di dialogo in cui scegliere una cartella di destinazione.
-4. Definizione e implementazione della funzionalità di trasferimento del file selezionato nella cartella di destinazione.                                                                                                                                                   5. Test ed integrazione.                                                                           </t>
+4. Definizione e implementazione della funzionalità di trasferimento del file selezionato nella cartella di destinazione.                          
+5. Scrivere il completamento dell'azione su un file di log.                                                                                                                         6. Test ed integrazione.                                                                           </t>
   </si>
   <si>
     <t>Trigger orario</t>
@@ -256,7 +259,9 @@
   <si>
     <t>1. Inserire tra le azioni una sezione che permetta di selezionare un file.
 2. aggiungere un tasto che apra una finestra di dialogo in cui scegliere un file.
-3. Definizione e implementazione della funzionalità di eliminazione del file selezionato.                                                                                      4. Test ed integrazione</t>
+3. Definizione e implementazione della funzionalità di eliminazione del file selezionato.                                                                                      
+4.Scrivere il completamento dell'azione su un file di log.
+5. Test ed integrazione</t>
   </si>
   <si>
     <t>Azione audio</t>
@@ -282,7 +287,9 @@
     <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare eseguire un programma esterno.
 2. Sezione per la scelta del programma da eseguire.
 3. Sezione per l'inserimento dei parametri da passare al programma.
-4. Definizione e implementazione della funzionalità di esecuzione di un programma esterno.                                                                          5. Test integrazione.                                                                        </t>
+4. Definizione e implementazione della funzionalità di esecuzione di un programma esterno.              
+5. Scrivere il completamento dell'azione su un file di log.
+6. Test integrazione.                                                                        </t>
   </si>
   <si>
     <t>Azione messaggio sul display</t>
@@ -462,6 +469,12 @@
     <t>Sprint Backlog 3</t>
   </si>
   <si>
+    <t>Bug Azione copia di un file</t>
+  </si>
+  <si>
+    <t>Come utente voglio poter copiare un file in una cartella con un file che presenta lo stesso nome del file da copiare, modificando il nome</t>
+  </si>
+  <si>
     <t xml:space="preserve">Come utente voglio che sia presente un'azione di trasferimento di un file cosicché io possa spostare uno specifico file di una cartella sorgente in una di destinazione.
 </t>
   </si>
@@ -471,6 +484,18 @@
 allora il file viene trasferito nella cartella di destinazione.</t>
   </si>
   <si>
+    <t>Bug Azione trasferimento di un file</t>
+  </si>
+  <si>
+    <t>Come utente voglio poter trasferire un file in una cartella con un file che presenta lo stesso nome del file da trasferire, modificando il nome</t>
+  </si>
+  <si>
+    <t>Bug Test Esecuzione Programma esterno</t>
+  </si>
+  <si>
+    <t>1. Correzione</t>
+  </si>
+  <si>
     <t>Come utente voglio che sia presente un'azione di eliminazione di un file cosicché io possa eliminare uno specifico file di una cartella.</t>
   </si>
   <si>
@@ -479,18 +504,20 @@
 allora il file viene eliminato dalla cartella.</t>
   </si>
   <si>
-    <t>Bug Test Esecuzione Programma esterno</t>
-  </si>
-  <si>
-    <t>1. Correzione</t>
-  </si>
-  <si>
     <t>Come utente voglio che sia presente un'azione che permetta di eseguire un programma esterno cosicché specificati i parametri il programma venga eseguito.</t>
   </si>
   <si>
     <t>Dato un programma esterno e dei parametri specificati,
 quando si attiva una regola con associata l'azione di esecuzione di un programma esterno,
 allora il programma viene eseguito con quei parametri.</t>
+  </si>
+  <si>
+    <t>Come utente voglio scegliere un giorno della settimana cosicché posso associare un trigger a quel giorno della settimana.</t>
+  </si>
+  <si>
+    <t>Dato un trigger e un dato giorno della settimana selezionato,
+quando la condizione è verificata,
+allora allora il trigger risulta verificato.</t>
   </si>
   <si>
     <t>Trigger presenza di un file in una cartella</t>
@@ -502,10 +529,10 @@
 4. Definizione e implementazione della funzionalità di verifica della presenza di un file in una specifica cartella.                                                                                                                                                                5. Test ed integrazione.                                                                   </t>
   </si>
   <si>
-    <t>Come utente voglio scegliere un giorno della settimana cosicché posso associare un trigger a quel giorno della settimana.</t>
-  </si>
-  <si>
-    <t>Dato un trigger e un dato giorno della settimana selezionato,
+    <t>Come utente voglio scegliere un giorno del mese cosicché posso associare un trigger a quel giorno del mese.</t>
+  </si>
+  <si>
+    <t>Dato un trigger e un dato giorno del mese selezionato,
 quando la condizione è verificata,
 allora allora il trigger risulta verificato.</t>
   </si>
@@ -519,12 +546,12 @@
 4. Definizione e implementazione della funzionalità del confronto tra la dimensione del file e il valore immesso.                                                                                                                                                       5. Test ed integrazione.</t>
   </si>
   <si>
-    <t>Come utente voglio scegliere un giorno del mese cosicché posso associare un trigger a quel giorno del mese.</t>
-  </si>
-  <si>
-    <t>Dato un trigger e un dato giorno del mese selezionato,
+    <t>Come utente voglio selezionare una data cosicché posso associare un trigger a quella data.</t>
+  </si>
+  <si>
+    <t>Dato un trigger e un data selezionata,
 quando la condizione è verificata,
-allora allora il trigger risulta verificato.</t>
+allora il trigger risulta verificato.</t>
   </si>
   <si>
     <t xml:space="preserve">Trigger programma esterno
@@ -538,11 +565,11 @@
 5. Definizione e implementazione della funzionalità del confronto tra l'exit status di un programma, dopo avergli passato determinati parametri, e di un valore specificato.                                          6. Test ed integrazione.               </t>
   </si>
   <si>
-    <t>Come utente voglio selezionare una data cosicché posso associare un trigger a quella data.</t>
-  </si>
-  <si>
-    <t>Dato un trigger e un data selezionata,
-quando la condizione è verificata,
+    <t>Come utente voglio specificare per un trigger un file  e una cartella specifica cosicché che la verifica della sua presenza all'interno della cartella funga da condizione di verifica del trigger.</t>
+  </si>
+  <si>
+    <t>Dato un trigger, un file e una cartella,
+quando il file è presente nella specifica cartella,
 allora il trigger risulta verificato.</t>
   </si>
   <si>
@@ -555,11 +582,11 @@
 4. Design di una pagina per la visualizzazione delle azioni associate ad una regola.                                                5. Test ed integrazione.</t>
   </si>
   <si>
-    <t>Come utente voglio specificare per un trigger un file  e una cartella specifica cosicché che la verifica della sua presenza all'interno della cartella funga da condizione di verifica del trigger.</t>
-  </si>
-  <si>
-    <t>Dato un trigger, un file e una cartella,
-quando il file è presente nella specifica cartella,
+    <t>Come utente voglio specificare per un trigger un file e un valore cosicché la verifica che la dimensione del un file sia maggiore del valore funga funga da condizione di verifica del trigger.</t>
+  </si>
+  <si>
+    <t>Dato un trigger, un file e un valore,
+quando il file ha una dimensione maggiore del valore,
 allora il trigger risulta verificato.</t>
   </si>
   <si>
@@ -573,21 +600,6 @@
 4. Design di una pagina per la visualizzazione dei trigger associati ad una regola.                                                      5. Test ed integrazione.</t>
   </si>
   <si>
-    <t>Come utente voglio specificare per un trigger un file e un valore cosicché la verifica che la dimensione del un file sia maggiore del valore funga funga da condizione di verifica del trigger.</t>
-  </si>
-  <si>
-    <t>Dato un trigger, un file e un valore,
-quando il file ha una dimensione maggiore del valore,
-allora il trigger risulta verificato.</t>
-  </si>
-  <si>
-    <t>Creazione di contatori</t>
-  </si>
-  <si>
-    <t>1. Aggiungere un bottone "crea contatore" nell'interfaccia dell'app.
-2. Definizione e implementazione della funzionalità di creazione di un puntatore.                                     3. Test ed integrazione.</t>
-  </si>
-  <si>
     <t>Come utente voglio specificare un programma,dei parametri e un valore cosicché la verifica che l'exit status assuma un valore pari a quello del valore specificato funga da condizione di verifica del trigger.</t>
   </si>
   <si>
@@ -596,24 +608,24 @@
 allora il trigger risulta verificato.</t>
   </si>
   <si>
+    <t>Creazione di contatori</t>
+  </si>
+  <si>
+    <t>1. Aggiungere un bottone "crea contatore" nell'interfaccia dell'app.
+2. Definizione e implementazione della funzionalità di creazione di un puntatore.                                     3. Test ed integrazione.</t>
+  </si>
+  <si>
+    <t>Bug Test esecuzione programma  esterno</t>
+  </si>
+  <si>
+    <t>Come sviluppatore voglio poter eseguire il test sull'azione programma eseguzione esterno  su ogni sistema operativo</t>
+  </si>
+  <si>
     <t>Modifica contatori</t>
   </si>
   <si>
     <t>1. Aggiungere un bottone "modifica contatore" nell'interfaccia dell'app.
 2. Definizione e implementazione della funzionalirà relativa alla modifica del valore del contatore.                                                                                                                                                                                               3. Test ed integrazione.</t>
-  </si>
-  <si>
-    <t>Bug Test esecuzione programma  esterno</t>
-  </si>
-  <si>
-    <t>Come sviluppatore voglio poter eseguire il test sull'azione programma eseguzione esterno  su ogni sistema operativo</t>
-  </si>
-  <si>
-    <t>Azione di settaggio di un contatore</t>
-  </si>
-  <si>
-    <t>1. Inserire tra le azioni una sezione che permetta di selezionare un contatore e un valore a cui settarlo.
-2. Definizione e implementazione della funzionalità di settaggio del contatore al valore inserito.                                                                                                                                                                                     3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio poter selezionare più azioni per una regola cosicché posso associare ad una regola una sequenza di azioni.</t>
@@ -622,13 +634,6 @@
     <t>Data una regola
 quando questa viene selezionata o creata
 allora l'utente può selezionare una sequenza di azioni da associare alla regola.</t>
-  </si>
-  <si>
-    <t>Azione di somma di un valore ad un contatore</t>
-  </si>
-  <si>
-    <t>1. Inserire tra le azioni una sezione che permetta di selezionare un contatore e un valore di cui aumentarlo.
-2. Definizione e implementazione della funzionalità di aggiornamento del valore del contatore alla somma dei due valori.                                                                                                                                  3. Test ed integrazione.</t>
   </si>
   <si>
     <t>Come utente voglio poter creare nuovi trigger dalla combinazione di altri trigger attraverso gli operatori logici cosicché io possa avere condizioni complesse per la verifica del trigger</t>
@@ -640,13 +645,6 @@
 </t>
   </si>
   <si>
-    <t>Azione di somma tra contatori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Inserire tra le azioni una sezione che permetta di selezionare due contatori.
-2. Definizione e implementazione della funzionalità di aggiornamento del valore del contatore alla somma tra il valore dei due contatori.                                                                                                        3. Test ed integrazione.                         </t>
-  </si>
-  <si>
     <t>Come utente voglio creare delle variabili contatori che hanno un nome e un valore numerico intero.</t>
   </si>
   <si>
@@ -655,13 +653,6 @@
 allora si apre la sezione relativa alla sua creazione. </t>
   </si>
   <si>
-    <t>Vista contatori</t>
-  </si>
-  <si>
-    <t>1. Aggiungere un bottone "visualizza contatori".
-2. Definizione e implementazione della funzionalirà relativa alla visualizzazione dei contatori.                       3. Test ed integrazione.</t>
-  </si>
-  <si>
     <t>Come utente voglio modificare il valore di un contatore.</t>
   </si>
   <si>
@@ -670,6 +661,9 @@
 allora si apre la sezione relativa alla sua modifica. </t>
   </si>
   <si>
+    <t>Azione di settaggio di un contatore</t>
+  </si>
+  <si>
     <t>Come utente voglio che sia presente un'azione di settaggio di un contatore
 cosicché io possa settare il valore del contatore.</t>
   </si>
@@ -679,6 +673,9 @@
 allora il contatore viene settato al valore desiderato.</t>
   </si>
   <si>
+    <t>Azione di somma di un valore ad un contatore</t>
+  </si>
+  <si>
     <t>Come utente voglio che sia presente un'azione di somma di un valore numerico ad un contatore
 cosicché io possa sommare il valore desiderato al valore del contatore.</t>
   </si>
@@ -688,6 +685,9 @@
 allora il contatore assume il valore della somma tra il suo vecchio valore e il valore desiderato.</t>
   </si>
   <si>
+    <t>Azione di somma tra contatori</t>
+  </si>
+  <si>
     <t>Come utente voglio che sia presente un'azione di somma tra contatori
 cosicché possa sommare al valore del contatore il valore di un altro contatore</t>
   </si>
@@ -697,6 +697,9 @@
 allora il primo contatore assume il valore della somma tra i valori dei due contatori specificati.</t>
   </si>
   <si>
+    <t>Vista contatori</t>
+  </si>
+  <si>
     <t>Come utente voglio visualizzare il valore corrente dei contatori creati.</t>
   </si>
   <si>
@@ -716,15 +719,6 @@
 allora il trigger risulta verificato.</t>
   </si>
   <si>
-    <t>Estimated Velocity</t>
-  </si>
-  <si>
-    <t>Actual Velocity</t>
-  </si>
-  <si>
-    <t>Sprint Number</t>
-  </si>
-  <si>
     <t>Trigger contatori</t>
   </si>
   <si>
@@ -734,6 +728,15 @@
     <t>Data un'espressione (che utilizza gli operatori relazionali) contenente i valori di due contatori,
 quando il risultato dell'espressione risulta vero,
 allora il trigger risulta verificato.</t>
+  </si>
+  <si>
+    <t>Estimated Velocity</t>
+  </si>
+  <si>
+    <t>Actual Velocity</t>
+  </si>
+  <si>
+    <t>Sprint Number</t>
   </si>
   <si>
     <t>Sostituzione di variabile</t>
@@ -861,7 +864,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,12 +909,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E2F3"/>
-        <bgColor rgb="FFD9E2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -929,7 +926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border/>
     <border>
       <left/>
@@ -1017,31 +1014,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFED7D31"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFED7D31"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFED7D31"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC65911"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC65911"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC65911"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC65911"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF9BC2E6"/>
       </left>
       <top style="thin">
@@ -1051,6 +1023,17 @@
     <border>
       <top style="thin">
         <color rgb="FF9BC2E6"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFED7D31"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFED7D31"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFED7D31"/>
       </top>
     </border>
     <border>
@@ -1071,7 +1054,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1168,6 +1151,15 @@
     <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1181,7 +1173,7 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,42 +1181,31 @@
     <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1250,24 +1231,30 @@
     <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="15" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="8" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,16 +1271,16 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="17" fillId="11" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="16" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="11" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="10" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
@@ -1545,11 +1532,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2007008735"/>
-        <c:axId val="880047276"/>
+        <c:axId val="1905834850"/>
+        <c:axId val="1110357558"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2007008735"/>
+        <c:axId val="1905834850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,10 +1588,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="880047276"/>
+        <c:crossAx val="1110357558"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="880047276"/>
+        <c:axId val="1110357558"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="138.0"/>
@@ -1669,7 +1656,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2007008735"/>
+        <c:crossAx val="1905834850"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
     </c:plotArea>
@@ -1736,7 +1723,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D12:I53" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="D12:I56" displayName="Table_1" id="1">
   <tableColumns count="6">
     <tableColumn name="ID" id="1"/>
     <tableColumn name="Titolo" id="2"/>
@@ -1790,7 +1777,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="V34:Y46" displayName="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="V37:Y49" displayName="Table_6" id="6">
   <tableColumns count="4">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -2201,7 +2188,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="D14" s="22">
-        <f t="shared" ref="D14:D40" si="1">D13+1</f>
+        <f t="shared" ref="D14:D31" si="1">D13+1</f>
         <v>2</v>
       </c>
       <c r="E14" s="18" t="s">
@@ -3014,51 +3001,38 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="D32" s="17">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <v>41.0</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G32" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>119</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="H32" s="19"/>
       <c r="I32" s="27">
         <v>3.0</v>
       </c>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="U32" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="V32" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="W32" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="X32" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y32" s="37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" ht="75.0" customHeight="1">
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="36"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
       <c r="D33" s="17">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>D31+1</f>
+        <v>20</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>120</v>
@@ -3072,687 +3046,737 @@
       <c r="I33" s="27">
         <v>3.0</v>
       </c>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="U33" s="17">
-        <v>40.0</v>
-      </c>
-      <c r="V33" s="18" t="s">
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="U33" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="V33" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="W33" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="X33" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y33" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="75.0" customHeight="1">
+      <c r="D34" s="17">
+        <v>42.0</v>
+      </c>
+      <c r="E34" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="W33" s="17">
+      <c r="F34" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="17">
         <v>1.0</v>
       </c>
-      <c r="X33" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y33" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1">
-      <c r="D34" s="17">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="H34" s="23" t="s">
-        <v>125</v>
-      </c>
+      <c r="H34" s="19"/>
       <c r="I34" s="27">
         <v>3.0</v>
       </c>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
       <c r="U34" s="17">
-        <v>26.0</v>
+        <v>40.0</v>
       </c>
       <c r="V34" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="W34" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="X34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y34" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" ht="75.0" customHeight="1">
+      <c r="D35" s="17">
+        <f>D33+1</f>
+        <v>21</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="W34" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="X34" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y34" s="42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1">
-      <c r="D35" s="17">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="G35" s="17">
         <v>3.0</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I35" s="27">
         <v>3.0</v>
       </c>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
       <c r="U35" s="17">
-        <f t="shared" ref="U35:U41" si="4">U34+1</f>
-        <v>27</v>
+        <v>41.0</v>
       </c>
       <c r="V35" s="18" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="W35" s="17">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="X35" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y35" s="42" t="s">
-        <v>131</v>
+        <v>30</v>
+      </c>
+      <c r="Y35" s="43" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="D36" s="17">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" ref="D36:D42" si="4">D35+1</f>
+        <v>22</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G36" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>133</v>
+        <v>5.0</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="I36" s="27">
         <v>3.0</v>
       </c>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
       <c r="U36" s="17">
+        <v>42.0</v>
+      </c>
+      <c r="V36" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="W36" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="X36" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y36" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="D37" s="17">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G37" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="U37" s="17">
+        <v>26.0</v>
+      </c>
+      <c r="V37" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="W37" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="X37" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y37" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="D38" s="17">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="U38" s="17">
+        <f t="shared" ref="U38:U43" si="5">U37+1</f>
+        <v>27</v>
+      </c>
+      <c r="V38" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="W38" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="X38" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y38" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="D39" s="17">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I39" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="U39" s="17">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="V39" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="W39" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="X39" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y39" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="D40" s="17">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="U40" s="17">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="V40" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="W40" s="17">
+        <v>8.0</v>
+      </c>
+      <c r="X40" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y40" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="D41" s="17">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="U41" s="17">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="V41" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="W41" s="17">
+        <v>9.0</v>
+      </c>
+      <c r="X41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y41" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="D42" s="17">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="V36" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="W36" s="17">
+      <c r="E42" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="17">
         <v>6.0</v>
       </c>
-      <c r="X36" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y36" s="42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1">
-      <c r="D37" s="17">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="17">
+      <c r="H42" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I42" s="27">
         <v>3.0</v>
       </c>
-      <c r="H37" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="I37" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="U37" s="17">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="V37" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="W37" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="X37" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y37" s="42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="D38" s="17">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="I38" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="U38" s="17">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="V38" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="W38" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="X38" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y38" s="42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="D39" s="17">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I39" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="U39" s="17">
-        <f t="shared" si="4"/>
+      <c r="U42" s="17">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="V39" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="W39" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="X39" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y39" s="40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="D40" s="17">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="27">
-        <v>3.0</v>
-      </c>
-      <c r="U40" s="17">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="V40" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="W40" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="X40" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y40" s="40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="D41" s="43">
-        <v>40.0</v>
-      </c>
-      <c r="E41" s="44" t="s">
+      <c r="V42" s="18" t="s">
         <v>152</v>
-      </c>
-      <c r="F41" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="G41" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48">
-        <v>3.0</v>
-      </c>
-      <c r="U41" s="17">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="V41" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="W41" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="X41" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y41" s="42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="D42" s="17">
-        <f>D40+1</f>
-        <v>29</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I42" s="49">
-        <v>4.0</v>
-      </c>
-      <c r="U42" s="17">
-        <v>34.0</v>
-      </c>
-      <c r="V42" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="W42" s="17">
         <v>4.0</v>
       </c>
-      <c r="X42" s="26" t="s">
+      <c r="X42" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="Y42" s="42" t="s">
-        <v>159</v>
+      <c r="Y42" s="46" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="D43" s="17">
-        <f t="shared" ref="D43:D52" si="5">D42+1</f>
-        <v>30</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="I43" s="49">
+      <c r="D43" s="47">
+        <v>40.0</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="50">
+        <v>2.0</v>
+      </c>
+      <c r="H43" s="51"/>
+      <c r="I43" s="52">
+        <v>3.0</v>
+      </c>
+      <c r="U43" s="17">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="V43" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="W43" s="17">
         <v>4.0</v>
       </c>
-      <c r="U43" s="50">
-        <v>35.0</v>
-      </c>
-      <c r="V43" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="W43" s="50">
-        <v>3.0</v>
-      </c>
-      <c r="X43" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y43" s="42" t="s">
-        <v>163</v>
+      <c r="X43" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y43" s="46" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="D44" s="17">
-        <f t="shared" si="5"/>
-        <v>31</v>
+        <f>D42+1</f>
+        <v>29</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G44" s="17">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="I44" s="49">
-        <v>5.0</v>
-      </c>
-      <c r="U44" s="52">
-        <v>36.0</v>
-      </c>
-      <c r="V44" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="W44" s="52">
-        <v>3.0</v>
-      </c>
-      <c r="X44" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y44" s="54" t="s">
-        <v>167</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="I44" s="53">
+        <v>4.0</v>
+      </c>
+      <c r="V44" s="54"/>
+      <c r="W44" s="54"/>
+      <c r="X44" s="54"/>
+      <c r="Y44" s="54"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="D45" s="17">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" ref="D45:D54" si="6">D44+1</f>
+        <v>30</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G45" s="17">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="I45" s="49">
-        <v>5.0</v>
-      </c>
-      <c r="U45" s="55"/>
-      <c r="V45" s="56"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="59"/>
+        <v>161</v>
+      </c>
+      <c r="I45" s="53">
+        <v>4.0</v>
+      </c>
+      <c r="V45" s="54"/>
+      <c r="W45" s="54"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="D46" s="17">
-        <f t="shared" si="5"/>
-        <v>33</v>
+        <f t="shared" si="6"/>
+        <v>31</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G46" s="17">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I46" s="49">
+        <v>163</v>
+      </c>
+      <c r="I46" s="53">
         <v>5.0</v>
       </c>
-      <c r="U46" s="55"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="58"/>
-      <c r="Y46" s="59"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="D47" s="17">
-        <f t="shared" si="5"/>
-        <v>34</v>
+        <f t="shared" si="6"/>
+        <v>32</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G47" s="17">
         <v>4.0</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="I47" s="49">
+        <v>165</v>
+      </c>
+      <c r="I47" s="53">
         <v>5.0</v>
       </c>
-      <c r="U47" s="60"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="D48" s="17">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G48" s="17">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="I48" s="49">
+        <v>168</v>
+      </c>
+      <c r="I48" s="53">
         <v>5.0</v>
       </c>
-      <c r="R48" s="60"/>
-      <c r="U48" s="61"/>
-      <c r="V48" s="61"/>
-      <c r="W48" s="61"/>
-      <c r="X48" s="61"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="59"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="D49" s="17">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G49" s="17">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="I49" s="49">
+        <v>171</v>
+      </c>
+      <c r="I49" s="53">
         <v>5.0</v>
       </c>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="62"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="63"/>
-      <c r="W49" s="63"/>
-      <c r="X49" s="61"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="58"/>
+      <c r="Y49" s="59"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="D50" s="17">
-        <f t="shared" si="5"/>
-        <v>37</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G50" s="17">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="I50" s="49">
+        <v>174</v>
+      </c>
+      <c r="I50" s="53">
         <v>5.0</v>
       </c>
-      <c r="R50" s="64" t="s">
-        <v>181</v>
-      </c>
-      <c r="S50" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="T50" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="U50" s="61"/>
-      <c r="V50" s="66"/>
-      <c r="W50" s="66"/>
-      <c r="X50" s="61"/>
+      <c r="U50" s="60"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="D51" s="17">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f t="shared" si="6"/>
+        <v>36</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G51" s="17">
         <v>3.0</v>
       </c>
       <c r="H51" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" s="53">
+        <v>5.0</v>
+      </c>
+      <c r="R51" s="60"/>
+      <c r="U51" s="61"/>
+      <c r="V51" s="61"/>
+      <c r="W51" s="61"/>
+      <c r="X51" s="61"/>
+    </row>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="D52" s="17">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="I52" s="53">
+        <v>5.0</v>
+      </c>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="63"/>
+      <c r="W52" s="63"/>
+      <c r="X52" s="61"/>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="D53" s="17">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="I53" s="53">
+        <v>5.0</v>
+      </c>
+      <c r="R53" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="S53" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="T53" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="I51" s="49">
+      <c r="U53" s="61"/>
+      <c r="V53" s="66"/>
+      <c r="W53" s="66"/>
+      <c r="X53" s="61"/>
+    </row>
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="D54" s="67">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F54" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="67">
+        <v>9.0</v>
+      </c>
+      <c r="H54" s="69" t="s">
+        <v>189</v>
+      </c>
+      <c r="I54" s="70">
         <v>5.0</v>
       </c>
-      <c r="R51" s="67">
+      <c r="R54" s="71">
         <v>40.0</v>
       </c>
-      <c r="S51" s="67">
+      <c r="S54" s="71">
         <v>37.0</v>
       </c>
-      <c r="T51" s="67">
+      <c r="T54" s="71">
         <v>1.0</v>
       </c>
-      <c r="U51" s="61"/>
-      <c r="V51" s="66"/>
-      <c r="W51" s="66"/>
-      <c r="X51" s="61"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="D52" s="50">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="E52" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="F52" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="G52" s="50">
-        <v>7.0</v>
-      </c>
-      <c r="H52" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="I52" s="69">
-        <v>5.0</v>
-      </c>
-      <c r="R52" s="67">
+      <c r="U54" s="61"/>
+      <c r="V54" s="66"/>
+      <c r="W54" s="66"/>
+      <c r="X54" s="61"/>
+    </row>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="D55" s="72"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="76"/>
+      <c r="R55" s="71">
         <v>38.0</v>
       </c>
-      <c r="S52" s="67">
+      <c r="S55" s="71">
         <v>44.0</v>
       </c>
-      <c r="T52" s="67">
+      <c r="T55" s="71">
         <v>2.0</v>
       </c>
-      <c r="U52" s="61"/>
-      <c r="V52" s="66"/>
-      <c r="W52" s="66"/>
-      <c r="X52" s="61"/>
-    </row>
-    <row r="53" ht="165.0" customHeight="1">
-      <c r="D53" s="70"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="74"/>
-      <c r="R53" s="67">
-        <v>45.0</v>
-      </c>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67">
+      <c r="U55" s="61"/>
+      <c r="V55" s="66"/>
+      <c r="W55" s="66"/>
+      <c r="X55" s="61"/>
+    </row>
+    <row r="56" ht="165.0" customHeight="1">
+      <c r="R56" s="71">
+        <v>44.0</v>
+      </c>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71">
         <v>3.0</v>
       </c>
-      <c r="U53" s="61"/>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1"/>
-    <row r="56" ht="12.75" customHeight="1"/>
-    <row r="57" ht="12.75" customHeight="1"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+    </row>
+    <row r="57" ht="12.75" customHeight="1">
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+    </row>
     <row r="58" ht="12.75" customHeight="1"/>
     <row r="59" ht="12.75" customHeight="1"/>
     <row r="60" ht="12.75" customHeight="1"/>
@@ -4703,6 +4727,9 @@
     <row r="1005" ht="12.75" customHeight="1"/>
     <row r="1006" ht="12.75" customHeight="1"/>
     <row r="1007" ht="12.75" customHeight="1"/>
+    <row r="1008" ht="12.75" customHeight="1"/>
+    <row r="1009" ht="12.75" customHeight="1"/>
+    <row r="1010" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:S1"/>
@@ -4711,27 +4738,27 @@
     <mergeCell ref="U11:Y11"/>
     <mergeCell ref="U31:Y31"/>
   </mergeCells>
-  <conditionalFormatting sqref="I12:I53">
+  <conditionalFormatting sqref="I12:I56">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="1">
       <formula>NOT(ISERROR(SEARCH(("1"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I53">
+  <conditionalFormatting sqref="I12:I56">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="2">
       <formula>NOT(ISERROR(SEARCH(("2"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I53">
+  <conditionalFormatting sqref="I12:I56">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="3">
       <formula>NOT(ISERROR(SEARCH(("3"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I53">
+  <conditionalFormatting sqref="I12:I56">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="4">
       <formula>NOT(ISERROR(SEARCH(("4"),(I12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I53">
+  <conditionalFormatting sqref="I12:I56">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="5">
       <formula>NOT(ISERROR(SEARCH(("5"),(I12))))</formula>
     </cfRule>
@@ -4783,7 +4810,7 @@
     <row r="4" ht="12.75" customHeight="1"/>
     <row r="5" ht="12.75" customHeight="1"/>
     <row r="6" ht="27.0" customHeight="1">
-      <c r="F6" s="75"/>
+      <c r="F6" s="77"/>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1"/>
@@ -4795,71 +4822,71 @@
     <row r="14" ht="12.75" customHeight="1"/>
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="60.0" customHeight="1">
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="77" t="s">
+      <c r="D16" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="E16" s="77" t="s">
-        <v>183</v>
+      <c r="E16" s="79" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="17" ht="39.0" customHeight="1">
-      <c r="C17" s="78">
-        <v>140.0</v>
-      </c>
-      <c r="D17" s="79">
-        <v>140.0</v>
-      </c>
-      <c r="E17" s="79">
+      <c r="C17" s="80">
+        <v>155.0</v>
+      </c>
+      <c r="D17" s="81">
+        <v>155.0</v>
+      </c>
+      <c r="E17" s="81">
         <v>0.0</v>
       </c>
     </row>
     <row r="18" ht="39.0" customHeight="1">
-      <c r="C18" s="78">
-        <v>96.0</v>
-      </c>
-      <c r="D18" s="79">
-        <v>103.0</v>
-      </c>
-      <c r="E18" s="79">
+      <c r="C18" s="80">
+        <v>111.0</v>
+      </c>
+      <c r="D18" s="81">
+        <v>118.0</v>
+      </c>
+      <c r="E18" s="81">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="39.0" customHeight="1">
-      <c r="C19" s="78">
-        <v>52.0</v>
-      </c>
-      <c r="D19" s="79">
-        <v>59.0</v>
-      </c>
-      <c r="E19" s="79">
+      <c r="C19" s="80">
+        <v>67.0</v>
+      </c>
+      <c r="D19" s="81">
+        <v>74.0</v>
+      </c>
+      <c r="E19" s="81">
         <v>2.0</v>
       </c>
     </row>
     <row r="20" ht="39.0" customHeight="1">
-      <c r="C20" s="78">
-        <v>8.0</v>
-      </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79">
+      <c r="C20" s="80">
+        <v>23.0</v>
+      </c>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81">
         <v>3.0</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="C21" s="78">
-        <v>-36.0</v>
-      </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79">
+      <c r="C21" s="80">
+        <v>-21.0</v>
+      </c>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81">
         <v>4.0</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1"/>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
       <c r="N23" s="34"/>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
